--- a/Scrap/Dados.xlsx
+++ b/Scrap/Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnova\.gitRepositories\Scrap\Scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096F95C3-FED4-4949-9D04-2CFD72ED9224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB386E2-B8E9-4D55-B4BC-471625218D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DBB027D-C5BD-40A7-8659-AB2808C8076E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>HorarioPartida</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>GRU</t>
-  </si>
-  <si>
-    <t>22:25</t>
-  </si>
-  <si>
-    <t>22:50</t>
   </si>
   <si>
     <t>AeroportoDestino</t>
@@ -61,21 +55,58 @@
 +1</t>
   </si>
   <si>
-    <t>3:30_x000D_
-+1</t>
-  </si>
-  <si>
-    <t>11:45_x000D_
-+1</t>
-  </si>
-  <si>
     <t>3 h 20 min.</t>
   </si>
   <si>
-    <t>5 h 5 min.</t>
-  </si>
-  <si>
-    <t>12 h 55 min.</t>
+    <t>Preco</t>
+  </si>
+  <si>
+    <t>TipoTrajeto</t>
+  </si>
+  <si>
+    <t>Moeda</t>
+  </si>
+  <si>
+    <t>Direto</t>
+  </si>
+  <si>
+    <t>1 parada</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>qua., 15/11</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>8:55</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>3 h 25 min.</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>15:50</t>
+  </si>
+  <si>
+    <t>13:10</t>
+  </si>
+  <si>
+    <t>CGH</t>
+  </si>
+  <si>
+    <t>23:55</t>
+  </si>
+  <si>
+    <t>10 h 45 min.</t>
   </si>
 </sst>
 </file>
@@ -431,103 +462,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F59F5F-BDA7-454B-BCC5-610113985204}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Scrap/Dados.xlsx
+++ b/Scrap/Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnova\.gitRepositories\Scrap\Scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB386E2-B8E9-4D55-B4BC-471625218D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A33932B-2B73-4EDA-A608-715A3E9C39A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DBB027D-C5BD-40A7-8659-AB2808C8076E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>HorarioPartida</t>
   </si>
@@ -79,9 +79,6 @@
     <t>qua., 15/11</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>8:55</t>
   </si>
   <si>
@@ -107,6 +104,18 @@
   </si>
   <si>
     <t>10 h 45 min.</t>
+  </si>
+  <si>
+    <t>72.091</t>
+  </si>
+  <si>
+    <t>pontos</t>
+  </si>
+  <si>
+    <t>98.876</t>
+  </si>
+  <si>
+    <t>80.105</t>
   </si>
 </sst>
 </file>
@@ -475,7 +484,7 @@
     <col min="5" max="5" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -509,18 +518,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -532,10 +541,10 @@
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -543,42 +552,42 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -590,10 +599,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -601,28 +610,28 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Scrap/Dados.xlsx
+++ b/Scrap/Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnova\.gitRepositories\Scrap\Scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A33932B-2B73-4EDA-A608-715A3E9C39A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78B21E5-A7CD-4018-812A-FF9DA4A84F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DBB027D-C5BD-40A7-8659-AB2808C8076E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="45">
   <si>
     <t>HorarioPartida</t>
   </si>
@@ -79,15 +79,9 @@
     <t>qua., 15/11</t>
   </si>
   <si>
-    <t>8:55</t>
-  </si>
-  <si>
     <t>12:20</t>
   </si>
   <si>
-    <t>3 h 25 min.</t>
-  </si>
-  <si>
     <t>12:30</t>
   </si>
   <si>
@@ -116,6 +110,57 @@
   </si>
   <si>
     <t>80.105</t>
+  </si>
+  <si>
+    <t>qui., 16/11</t>
+  </si>
+  <si>
+    <t>9:00</t>
+  </si>
+  <si>
+    <t>60.404</t>
+  </si>
+  <si>
+    <t>14:10</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>sex., 17/11</t>
+  </si>
+  <si>
+    <t>6:30</t>
+  </si>
+  <si>
+    <t>11:45</t>
+  </si>
+  <si>
+    <t>5 h 15 min.</t>
+  </si>
+  <si>
+    <t>67.119</t>
+  </si>
+  <si>
+    <t>sáb., 18/11</t>
+  </si>
+  <si>
+    <t>8:50</t>
+  </si>
+  <si>
+    <t>3 h 30 min.</t>
+  </si>
+  <si>
+    <t>62.404</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>7 h 40 min.</t>
+  </si>
+  <si>
+    <t>2 paradas</t>
   </si>
 </sst>
 </file>
@@ -471,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F59F5F-BDA7-454B-BCC5-610113985204}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,18 +563,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -541,10 +586,10 @@
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -552,57 +597,57 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -610,28 +655,376 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
+      <c r="H13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Scrap/Dados.xlsx
+++ b/Scrap/Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnova\.gitRepositories\Scrap\Scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78B21E5-A7CD-4018-812A-FF9DA4A84F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383276C8-8108-45D2-BCF1-91E62DFA2479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DBB027D-C5BD-40A7-8659-AB2808C8076E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="68">
   <si>
     <t>HorarioPartida</t>
   </si>
@@ -161,6 +161,76 @@
   </si>
   <si>
     <t>2 paradas</t>
+  </si>
+  <si>
+    <t>dom., 19/11</t>
+  </si>
+  <si>
+    <t>19:20</t>
+  </si>
+  <si>
+    <t>80.101</t>
+  </si>
+  <si>
+    <t>seg., 20/11</t>
+  </si>
+  <si>
+    <t>53.078</t>
+  </si>
+  <si>
+    <t>19:40</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>ter., 21/11</t>
+  </si>
+  <si>
+    <t>qua., 22/11</t>
+  </si>
+  <si>
+    <t>8:55</t>
+  </si>
+  <si>
+    <t>3 h 25 min.</t>
+  </si>
+  <si>
+    <t>53.247</t>
+  </si>
+  <si>
+    <t>74.268</t>
+  </si>
+  <si>
+    <t>qui., 23/11</t>
+  </si>
+  <si>
+    <t>sex., 24/11</t>
+  </si>
+  <si>
+    <t>sáb., 25/11</t>
+  </si>
+  <si>
+    <t>16:55</t>
+  </si>
+  <si>
+    <t>0:05_x000D_
++1</t>
+  </si>
+  <si>
+    <t>7 h 10 min.</t>
+  </si>
+  <si>
+    <t>50.521</t>
+  </si>
+  <si>
+    <t>dom., 26/11</t>
+  </si>
+  <si>
+    <t>48.431</t>
+  </si>
+  <si>
+    <t>58.330</t>
   </si>
 </sst>
 </file>
@@ -516,13 +586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F59F5F-BDA7-454B-BCC5-610113985204}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -1027,6 +1097,934 @@
         <v>25</v>
       </c>
     </row>
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Scrap/Dados.xlsx
+++ b/Scrap/Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnova\.gitRepositories\Scrap\Scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383276C8-8108-45D2-BCF1-91E62DFA2479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAD2AF8-A0BA-4F68-A819-1E47F0AE58F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DBB027D-C5BD-40A7-8659-AB2808C8076E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="70">
   <si>
     <t>HorarioPartida</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>qua., 15/11</t>
-  </si>
-  <si>
     <t>12:20</t>
   </si>
   <si>
@@ -88,48 +85,24 @@
     <t>15:50</t>
   </si>
   <si>
-    <t>13:10</t>
-  </si>
-  <si>
     <t>CGH</t>
   </si>
   <si>
     <t>23:55</t>
   </si>
   <si>
-    <t>10 h 45 min.</t>
-  </si>
-  <si>
-    <t>72.091</t>
-  </si>
-  <si>
     <t>pontos</t>
   </si>
   <si>
-    <t>98.876</t>
-  </si>
-  <si>
-    <t>80.105</t>
-  </si>
-  <si>
-    <t>qui., 16/11</t>
-  </si>
-  <si>
     <t>9:00</t>
   </si>
   <si>
-    <t>60.404</t>
-  </si>
-  <si>
     <t>14:10</t>
   </si>
   <si>
     <t>17:30</t>
   </si>
   <si>
-    <t>sex., 17/11</t>
-  </si>
-  <si>
     <t>6:30</t>
   </si>
   <si>
@@ -139,76 +112,7 @@
     <t>5 h 15 min.</t>
   </si>
   <si>
-    <t>67.119</t>
-  </si>
-  <si>
-    <t>sáb., 18/11</t>
-  </si>
-  <si>
-    <t>8:50</t>
-  </si>
-  <si>
-    <t>3 h 30 min.</t>
-  </si>
-  <si>
-    <t>62.404</t>
-  </si>
-  <si>
-    <t>16:15</t>
-  </si>
-  <si>
-    <t>7 h 40 min.</t>
-  </si>
-  <si>
-    <t>2 paradas</t>
-  </si>
-  <si>
-    <t>dom., 19/11</t>
-  </si>
-  <si>
     <t>19:20</t>
-  </si>
-  <si>
-    <t>80.101</t>
-  </si>
-  <si>
-    <t>seg., 20/11</t>
-  </si>
-  <si>
-    <t>53.078</t>
-  </si>
-  <si>
-    <t>19:40</t>
-  </si>
-  <si>
-    <t>23:00</t>
-  </si>
-  <si>
-    <t>ter., 21/11</t>
-  </si>
-  <si>
-    <t>qua., 22/11</t>
-  </si>
-  <si>
-    <t>8:55</t>
-  </si>
-  <si>
-    <t>3 h 25 min.</t>
-  </si>
-  <si>
-    <t>53.247</t>
-  </si>
-  <si>
-    <t>74.268</t>
-  </si>
-  <si>
-    <t>qui., 23/11</t>
-  </si>
-  <si>
-    <t>sex., 24/11</t>
-  </si>
-  <si>
-    <t>sáb., 25/11</t>
   </si>
   <si>
     <t>16:55</t>
@@ -221,16 +125,119 @@
     <t>7 h 10 min.</t>
   </si>
   <si>
-    <t>50.521</t>
-  </si>
-  <si>
-    <t>dom., 26/11</t>
-  </si>
-  <si>
-    <t>48.431</t>
-  </si>
-  <si>
-    <t>58.330</t>
+    <t>seg., 11/03</t>
+  </si>
+  <si>
+    <t>20.498</t>
+  </si>
+  <si>
+    <t>24.723</t>
+  </si>
+  <si>
+    <t>ter., 12/03</t>
+  </si>
+  <si>
+    <t>16.150</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>22:50</t>
+  </si>
+  <si>
+    <t>18.553</t>
+  </si>
+  <si>
+    <t>qua., 13/03</t>
+  </si>
+  <si>
+    <t>qui., 14/03</t>
+  </si>
+  <si>
+    <t>18.032</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>1:50_x000D_
++1</t>
+  </si>
+  <si>
+    <t>8 h 35 min.</t>
+  </si>
+  <si>
+    <t>18.556</t>
+  </si>
+  <si>
+    <t>sex., 15/03</t>
+  </si>
+  <si>
+    <t>sáb., 16/03</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>19:15</t>
+  </si>
+  <si>
+    <t>22:35</t>
+  </si>
+  <si>
+    <t>13:55</t>
+  </si>
+  <si>
+    <t>10 h 10 min.</t>
+  </si>
+  <si>
+    <t>dom., 17/03</t>
+  </si>
+  <si>
+    <t>6:00</t>
+  </si>
+  <si>
+    <t>5 h 45 min.</t>
+  </si>
+  <si>
+    <t>seg., 18/03</t>
+  </si>
+  <si>
+    <t>36.396</t>
+  </si>
+  <si>
+    <t>ter., 19/03</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>10 h 5 min.</t>
+  </si>
+  <si>
+    <t>qua., 20/03</t>
+  </si>
+  <si>
+    <t>17.716</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>7 h 55 min.</t>
+  </si>
+  <si>
+    <t>qui., 21/03</t>
+  </si>
+  <si>
+    <t>13.168</t>
+  </si>
+  <si>
+    <t>16.230</t>
+  </si>
+  <si>
+    <t>sex., 22/03</t>
   </si>
 </sst>
 </file>
@@ -635,7 +642,7 @@
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -656,25 +663,25 @@
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
@@ -685,82 +692,82 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -772,24 +779,24 @@
         <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -801,24 +808,24 @@
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -830,83 +837,83 @@
         <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
@@ -917,24 +924,24 @@
         <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
@@ -946,73 +953,73 @@
         <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
@@ -1033,112 +1040,112 @@
         <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1149,24 +1156,24 @@
         <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>7</v>
@@ -1178,39 +1185,39 @@
         <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1218,13 +1225,13 @@
         <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>7</v>
@@ -1236,10 +1243,10 @@
         <v>13</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1247,13 +1254,13 @@
         <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>7</v>
@@ -1265,13 +1272,13 @@
         <v>13</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -1279,68 +1286,68 @@
         <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>32</v>
+      <c r="D26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>7</v>
@@ -1352,24 +1359,24 @@
         <v>13</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>7</v>
@@ -1381,83 +1388,83 @@
         <v>13</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E30" s="1" t="s">
         <v>7</v>
       </c>
@@ -1468,82 +1475,82 @@
         <v>13</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>7</v>
@@ -1555,24 +1562,24 @@
         <v>13</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>7</v>
@@ -1584,15 +1591,15 @@
         <v>13</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>2</v>
@@ -1613,24 +1620,24 @@
         <v>13</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>7</v>
@@ -1642,112 +1649,112 @@
         <v>13</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E40" s="1" t="s">
         <v>7</v>
       </c>
@@ -1758,82 +1765,82 @@
         <v>13</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>7</v>
@@ -1845,73 +1852,73 @@
         <v>13</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>2</v>
@@ -1932,24 +1939,24 @@
         <v>13</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>7</v>
@@ -1961,25 +1968,25 @@
         <v>13</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E48" s="1" t="s">
         <v>7</v>
       </c>
@@ -1990,24 +1997,24 @@
         <v>13</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>7</v>
@@ -2019,10 +2026,10 @@
         <v>13</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
